--- a/늪논문/1번: 피어슨 선형회귀분석(노인비율VS의원비율)/한의원_비율_노인 비율_상관분석.xlsx
+++ b/늪논문/1번: 피어슨 선형회귀분석(노인비율VS의원비율)/한의원_비율_노인 비율_상관분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="258">
   <si>
     <t>시군구_통합</t>
   </si>
@@ -533,6 +533,9 @@
   </si>
   <si>
     <t>서울특별시 중랑구</t>
+  </si>
+  <si>
+    <t>세종특별자치시</t>
   </si>
   <si>
     <t>울산광역시 남구</t>
@@ -1142,7 +1145,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F252"/>
+  <dimension ref="A1:F254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4513,1678 +4516,1718 @@
         <v>173</v>
       </c>
       <c r="B169">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="C169">
-        <v>560</v>
+        <v>492</v>
       </c>
       <c r="D169">
-        <v>0.2034139402560455</v>
+        <v>0.1934426229508197</v>
       </c>
       <c r="E169" t="s">
         <v>173</v>
       </c>
       <c r="F169">
-        <v>0.2563</v>
+        <v>0.1711</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B170">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="C170">
-        <v>138</v>
+        <v>492</v>
       </c>
       <c r="D170">
-        <v>0.2203389830508475</v>
+        <v>0.1934426229508197</v>
       </c>
       <c r="E170" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F170">
-        <v>0.2693</v>
+        <v>0.1711</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B171">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="C171">
-        <v>114</v>
+        <v>560</v>
       </c>
       <c r="D171">
-        <v>0.3173652694610778</v>
+        <v>0.2034139402560455</v>
       </c>
       <c r="E171" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F171">
-        <v>0.1978</v>
+        <v>0.2563</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B172">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C172">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="D172">
-        <v>0.3354037267080746</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="E172" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F172">
-        <v>0.2916</v>
+        <v>0.2693</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B173">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C173">
-        <v>195</v>
+        <v>114</v>
       </c>
       <c r="D173">
-        <v>0.1841004184100418</v>
+        <v>0.3173652694610778</v>
       </c>
       <c r="E173" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F173">
-        <v>0.2987</v>
+        <v>0.1978</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B174">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C174">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="D174">
-        <v>0.3962264150943396</v>
+        <v>0.3354037267080746</v>
       </c>
       <c r="E174" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F174">
-        <v>0.5081</v>
+        <v>0.2916</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B175">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="C175">
-        <v>289</v>
+        <v>195</v>
       </c>
       <c r="D175">
-        <v>0.3086124401913876</v>
+        <v>0.1841004184100418</v>
       </c>
       <c r="E175" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F175">
-        <v>0.2917</v>
+        <v>0.2987</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B176">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="C176">
-        <v>767</v>
+        <v>32</v>
       </c>
       <c r="D176">
-        <v>0.204356846473029</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="E176" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F176">
-        <v>0.2769</v>
+        <v>0.5081</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B177">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="C177">
-        <v>56</v>
+        <v>289</v>
       </c>
       <c r="D177">
-        <v>0.2631578947368421</v>
+        <v>0.3086124401913876</v>
       </c>
       <c r="E177" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F177">
-        <v>0.36</v>
+        <v>0.2917</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B178">
-        <v>114</v>
+        <v>197</v>
       </c>
       <c r="C178">
-        <v>444</v>
+        <v>767</v>
       </c>
       <c r="D178">
-        <v>0.2043010752688172</v>
+        <v>0.204356846473029</v>
       </c>
       <c r="E178" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F178">
-        <v>0.2879</v>
+        <v>0.2769</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B179">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="C179">
-        <v>658</v>
+        <v>56</v>
       </c>
       <c r="D179">
-        <v>0.2004860267314702</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="E179" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F179">
-        <v>0.2794</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B180">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="C180">
-        <v>579</v>
+        <v>444</v>
       </c>
       <c r="D180">
-        <v>0.2175675675675676</v>
+        <v>0.2043010752688172</v>
       </c>
       <c r="E180" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F180">
-        <v>0.2084</v>
+        <v>0.2879</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B181">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="C181">
-        <v>629</v>
+        <v>658</v>
       </c>
       <c r="D181">
-        <v>0.1613333333333333</v>
+        <v>0.2004860267314702</v>
       </c>
       <c r="E181" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F181">
-        <v>0.2064</v>
+        <v>0.2794</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="C182">
-        <v>21</v>
+        <v>579</v>
       </c>
       <c r="D182">
-        <v>0.04545454545454546</v>
+        <v>0.2175675675675676</v>
       </c>
       <c r="E182" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F182">
-        <v>0.4638</v>
+        <v>0.2084</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B183">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="C183">
-        <v>156</v>
+        <v>629</v>
       </c>
       <c r="D183">
-        <v>0.1567567567567568</v>
+        <v>0.1613333333333333</v>
       </c>
       <c r="E183" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F183">
-        <v>0.2231</v>
+        <v>0.2064</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B184">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C184">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D184">
-        <v>0.1555555555555556</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="E184" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F184">
-        <v>0.5</v>
+        <v>0.4638</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B185">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C185">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="D185">
-        <v>0.2173913043478261</v>
+        <v>0.1567567567567568</v>
       </c>
       <c r="E185" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F185">
-        <v>0.5681</v>
+        <v>0.2231</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B186">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C186">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D186">
-        <v>0.2173913043478261</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="E186" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F186">
-        <v>0.522</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B187">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C187">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="D187">
-        <v>0.2385321100917431</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="E187" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F187">
-        <v>0.2472</v>
+        <v>0.5681</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B188">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C188">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D188">
-        <v>0.4</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="E188" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F188">
-        <v>0.5135</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B189">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C189">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D189">
-        <v>0.2416666666666667</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="E189" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F189">
-        <v>0.3327</v>
+        <v>0.2472</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B190">
         <v>10</v>
       </c>
       <c r="C190">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D190">
-        <v>0.1754385964912281</v>
+        <v>0.4</v>
       </c>
       <c r="E190" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F190">
-        <v>0.4703</v>
+        <v>0.5135</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B191">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C191">
-        <v>282</v>
+        <v>91</v>
       </c>
       <c r="D191">
-        <v>0.1778425655976676</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="E191" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F191">
-        <v>0.2942</v>
+        <v>0.3327</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B192">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C192">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="D192">
-        <v>0.09722222222222222</v>
+        <v>0.1754385964912281</v>
       </c>
       <c r="E192" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F192">
-        <v>0.2841</v>
+        <v>0.4703</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B193">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C193">
-        <v>24</v>
+        <v>282</v>
       </c>
       <c r="D193">
-        <v>0.3333333333333333</v>
+        <v>0.1778425655976676</v>
       </c>
       <c r="E193" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F193">
-        <v>0.5447</v>
+        <v>0.2942</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B194">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="C194">
-        <v>314</v>
+        <v>130</v>
       </c>
       <c r="D194">
-        <v>0.1928020565552699</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="E194" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F194">
-        <v>0.2794</v>
+        <v>0.2841</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B195">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C195">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D195">
-        <v>0.2083333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E195" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F195">
-        <v>0.5165</v>
+        <v>0.5447</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B196">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C196">
-        <v>261</v>
+        <v>314</v>
       </c>
       <c r="D196">
-        <v>0.2208955223880597</v>
+        <v>0.1928020565552699</v>
       </c>
       <c r="E196" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F196">
-        <v>0.3298</v>
+        <v>0.2794</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B197">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C197">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D197">
-        <v>0.2545454545454545</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="E197" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F197">
-        <v>0.4126</v>
+        <v>0.5165</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B198">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="C198">
-        <v>32</v>
+        <v>261</v>
       </c>
       <c r="D198">
-        <v>0.3469387755102041</v>
+        <v>0.2208955223880597</v>
       </c>
       <c r="E198" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F198">
-        <v>0.4061</v>
+        <v>0.3298</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B199">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C199">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D199">
-        <v>0.2058823529411765</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="E199" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F199">
-        <v>0.4771</v>
+        <v>0.4126</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B200">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C200">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D200">
-        <v>0.2444444444444444</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="E200" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F200">
-        <v>0.4485</v>
+        <v>0.4061</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B201">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C201">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D201">
-        <v>0.225</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="E201" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F201">
-        <v>0.496</v>
+        <v>0.4771</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B202">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C202">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D202">
-        <v>0.2</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="E202" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F202">
-        <v>0.4828</v>
+        <v>0.4485</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B203">
         <v>9</v>
       </c>
       <c r="C203">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D203">
-        <v>0.3214285714285715</v>
+        <v>0.225</v>
       </c>
       <c r="E203" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F203">
-        <v>0.5245</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B204">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C204">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D204">
-        <v>0.15625</v>
+        <v>0.2</v>
       </c>
       <c r="E204" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F204">
-        <v>0.4829</v>
+        <v>0.4828</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B205">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C205">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D205">
-        <v>0.203125</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="E205" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F205">
-        <v>0.4125</v>
+        <v>0.5245</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B206">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C206">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D206">
-        <v>0.2765957446808511</v>
+        <v>0.15625</v>
       </c>
       <c r="E206" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F206">
-        <v>0.5007</v>
+        <v>0.4829</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B207">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="C207">
-        <v>340</v>
+        <v>51</v>
       </c>
       <c r="D207">
-        <v>0.2272727272727273</v>
+        <v>0.203125</v>
       </c>
       <c r="E207" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F207">
-        <v>0.316</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B208">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C208">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="D208">
-        <v>0.2386363636363636</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="E208" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F208">
-        <v>0.4551</v>
+        <v>0.5007</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B209">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="C209">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="D209">
-        <v>0.2079207920792079</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="E209" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F209">
-        <v>0.4252</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B210">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C210">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D210">
-        <v>0.4</v>
+        <v>0.2386363636363636</v>
       </c>
       <c r="E210" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F210">
-        <v>0.4931</v>
+        <v>0.4551</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B211">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C211">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="D211">
-        <v>0.3265306122448979</v>
+        <v>0.2079207920792079</v>
       </c>
       <c r="E211" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F211">
-        <v>0.4939</v>
+        <v>0.4252</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B212">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D212">
-        <v>0.2592592592592592</v>
+        <v>0.4</v>
       </c>
       <c r="E212" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F212">
-        <v>0.4811</v>
+        <v>0.4931</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B213">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C213">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="D213">
-        <v>0.2571428571428571</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="E213" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F213">
-        <v>0.3461</v>
+        <v>0.4939</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B214">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="C214">
-        <v>311</v>
+        <v>20</v>
       </c>
       <c r="D214">
-        <v>0.2358722358722359</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="E214" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F214">
-        <v>0.3342</v>
+        <v>0.4811</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B215">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C215">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D215">
-        <v>0.3225806451612903</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="E215" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F215">
-        <v>0.5296999999999999</v>
+        <v>0.3461</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B216">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="C216">
-        <v>8</v>
+        <v>311</v>
       </c>
       <c r="D216">
-        <v>0.3333333333333333</v>
+        <v>0.2358722358722359</v>
       </c>
       <c r="E216" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F216">
-        <v>0.5061</v>
+        <v>0.3342</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B217">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="C217">
-        <v>577</v>
+        <v>21</v>
       </c>
       <c r="D217">
-        <v>0.1613372093023256</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="E217" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F217">
-        <v>0.241</v>
+        <v>0.5296999999999999</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B218">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="C218">
-        <v>560</v>
+        <v>8</v>
       </c>
       <c r="D218">
-        <v>0.2090395480225989</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E218" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F218">
-        <v>0.2817</v>
+        <v>0.5061</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B219">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="C219">
-        <v>95</v>
+        <v>577</v>
       </c>
       <c r="D219">
-        <v>0.2578125</v>
+        <v>0.1613372093023256</v>
       </c>
       <c r="E219" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F219">
-        <v>0.417</v>
+        <v>0.241</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B220">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="C220">
-        <v>12</v>
+        <v>560</v>
       </c>
       <c r="D220">
-        <v>0.2941176470588235</v>
+        <v>0.2090395480225989</v>
       </c>
       <c r="E220" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F220">
-        <v>0.5232</v>
+        <v>0.2817</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B221">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="C221">
-        <v>245</v>
+        <v>95</v>
       </c>
       <c r="D221">
-        <v>0.2096774193548387</v>
+        <v>0.2578125</v>
       </c>
       <c r="E221" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F221">
-        <v>0.3188</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B222">
-        <v>196</v>
+        <v>5</v>
       </c>
       <c r="C222">
-        <v>1052</v>
+        <v>12</v>
       </c>
       <c r="D222">
-        <v>0.157051282051282</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="E222" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F222">
-        <v>0.2514</v>
+        <v>0.5232</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B223">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C223">
-        <v>59</v>
+        <v>245</v>
       </c>
       <c r="D223">
-        <v>0.2027027027027027</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="E223" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F223">
-        <v>0.2228</v>
+        <v>0.3188</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B224">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="C224">
-        <v>100</v>
+        <v>1052</v>
       </c>
       <c r="D224">
-        <v>0.2957746478873239</v>
+        <v>0.157051282051282</v>
       </c>
       <c r="E224" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F224">
-        <v>0.4197</v>
+        <v>0.2514</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B225">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C225">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D225">
-        <v>0.2533333333333334</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="E225" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F225">
-        <v>0.4793</v>
+        <v>0.2228</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B226">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C226">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D226">
-        <v>0.3032258064516129</v>
+        <v>0.2957746478873239</v>
       </c>
       <c r="E226" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F226">
-        <v>0.4211</v>
+        <v>0.4197</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B227">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C227">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="D227">
-        <v>0.2658959537572254</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="E227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F227">
-        <v>0.2973</v>
+        <v>0.4793</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B228">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C228">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="D228">
-        <v>0.3076923076923077</v>
+        <v>0.3032258064516129</v>
       </c>
       <c r="E228" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F228">
-        <v>0.419</v>
+        <v>0.4211</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B229">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C229">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="D229">
-        <v>0.2941176470588235</v>
+        <v>0.2658959537572254</v>
       </c>
       <c r="E229" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F229">
-        <v>0.5251</v>
+        <v>0.2973</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B230">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C230">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="D230">
-        <v>0.2368421052631579</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E230" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F230">
-        <v>0.3074</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B231">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C231">
         <v>36</v>
       </c>
       <c r="D231">
-        <v>0.2653061224489796</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="E231" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F231">
-        <v>0.5326</v>
+        <v>0.5251</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B232">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="C232">
-        <v>334</v>
+        <v>145</v>
       </c>
       <c r="D232">
-        <v>0.215962441314554</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="E232" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F232">
-        <v>0.2153</v>
+        <v>0.3074</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B233">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C233">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D233">
-        <v>0.2435897435897436</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="E233" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F233">
-        <v>0.4582</v>
+        <v>0.5326</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B234">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C234">
-        <v>282</v>
+        <v>334</v>
       </c>
       <c r="D234">
-        <v>0.2188365650969529</v>
+        <v>0.215962441314554</v>
       </c>
       <c r="E234" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F234">
-        <v>0.2652</v>
+        <v>0.2153</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B235">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="C235">
-        <v>496</v>
+        <v>59</v>
       </c>
       <c r="D235">
-        <v>0.2</v>
+        <v>0.2435897435897436</v>
       </c>
       <c r="E235" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F235">
-        <v>0.18</v>
+        <v>0.4582</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B236">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="C236">
-        <v>11</v>
+        <v>282</v>
       </c>
       <c r="D236">
-        <v>0.4210526315789473</v>
+        <v>0.2188365650969529</v>
       </c>
       <c r="E236" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F236">
-        <v>0.5272</v>
+        <v>0.2652</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B237">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="C237">
-        <v>39</v>
+        <v>496</v>
       </c>
       <c r="D237">
-        <v>0.2352941176470588</v>
+        <v>0.2</v>
       </c>
       <c r="E237" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F237">
-        <v>0.4879</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B238">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C238">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D238">
-        <v>0.319327731092437</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="E238" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F238">
-        <v>0.364</v>
+        <v>0.5272</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B239">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C239">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D239">
-        <v>0.2258064516129032</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="E239" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F239">
-        <v>0.5526</v>
+        <v>0.4879</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B240">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C240">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="D240">
-        <v>0.3846153846153846</v>
+        <v>0.319327731092437</v>
       </c>
       <c r="E240" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F240">
-        <v>0.5168</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B241">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C241">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D241">
-        <v>0.4444444444444444</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="E241" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F241">
-        <v>0.5371</v>
+        <v>0.5526</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B242">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C242">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D242">
-        <v>0.3207547169811321</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="E242" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F242">
-        <v>0.5021</v>
+        <v>0.5168</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B243">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C243">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D243">
-        <v>0.2452830188679245</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F243">
-        <v>0.4711</v>
+        <v>0.5371</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B244">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C244">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D244">
-        <v>0.247191011235955</v>
+        <v>0.3207547169811321</v>
       </c>
       <c r="E244" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F244">
-        <v>0.3702</v>
+        <v>0.5021</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B245">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C245">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="D245">
-        <v>0.3216374269005848</v>
+        <v>0.2452830188679245</v>
       </c>
       <c r="E245" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F245">
-        <v>0.3751</v>
+        <v>0.4711</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B246">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C246">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="D246">
-        <v>0.275</v>
+        <v>0.247191011235955</v>
       </c>
       <c r="E246" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F246">
-        <v>0.303</v>
+        <v>0.3702</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B247">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C247">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="D247">
-        <v>0.2428571428571429</v>
+        <v>0.3216374269005848</v>
       </c>
       <c r="E247" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F247">
-        <v>0.2768</v>
+        <v>0.3751</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B248">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C248">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="D248">
-        <v>0.2811059907834101</v>
+        <v>0.275</v>
       </c>
       <c r="E248" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F248">
-        <v>0.2711</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B249">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C249">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="D249">
-        <v>0.2780748663101604</v>
+        <v>0.2428571428571429</v>
       </c>
       <c r="E249" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F249">
-        <v>0.2839</v>
+        <v>0.2768</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B250">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C250">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D250">
-        <v>0.245</v>
+        <v>0.2811059907834101</v>
       </c>
       <c r="E250" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F250">
-        <v>0.232</v>
+        <v>0.2711</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B251">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="C251">
-        <v>398</v>
+        <v>135</v>
       </c>
       <c r="D251">
-        <v>0.2024048096192385</v>
+        <v>0.2780748663101604</v>
       </c>
       <c r="E251" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F251">
-        <v>0.2059</v>
+        <v>0.2839</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" t="s">
+        <v>255</v>
+      </c>
+      <c r="B252">
+        <v>49</v>
+      </c>
+      <c r="C252">
+        <v>151</v>
+      </c>
+      <c r="D252">
+        <v>0.245</v>
+      </c>
+      <c r="E252" t="s">
+        <v>255</v>
+      </c>
+      <c r="F252">
+        <v>0.232</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" t="s">
         <v>256</v>
       </c>
-      <c r="B252">
+      <c r="B253">
+        <v>101</v>
+      </c>
+      <c r="C253">
+        <v>398</v>
+      </c>
+      <c r="D253">
+        <v>0.2024048096192385</v>
+      </c>
+      <c r="E253" t="s">
+        <v>256</v>
+      </c>
+      <c r="F253">
+        <v>0.2059</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" t="s">
+        <v>257</v>
+      </c>
+      <c r="B254">
         <v>72</v>
       </c>
-      <c r="C252">
+      <c r="C254">
         <v>274</v>
       </c>
-      <c r="D252">
+      <c r="D254">
         <v>0.208092485549133</v>
       </c>
-      <c r="E252" t="s">
-        <v>256</v>
-      </c>
-      <c r="F252">
+      <c r="E254" t="s">
+        <v>257</v>
+      </c>
+      <c r="F254">
         <v>0.3386</v>
       </c>
     </row>
